--- a/BackTest/2019-10-26 BackTest BCD.xlsx
+++ b/BackTest/2019-10-26 BackTest BCD.xlsx
@@ -451,17 +451,13 @@
         <v>546.6</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>550</v>
-      </c>
-      <c r="K2" t="n">
-        <v>550</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
@@ -490,22 +486,14 @@
         <v>547.2</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>544</v>
-      </c>
-      <c r="K3" t="n">
-        <v>550</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,22 +521,14 @@
         <v>549</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>549</v>
-      </c>
-      <c r="K4" t="n">
-        <v>550</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -576,22 +556,14 @@
         <v>549.4</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>550</v>
-      </c>
-      <c r="K5" t="n">
-        <v>550</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -619,22 +591,14 @@
         <v>549.6</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>549</v>
-      </c>
-      <c r="K6" t="n">
-        <v>550</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -662,22 +626,14 @@
         <v>549.4</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>548</v>
-      </c>
-      <c r="K7" t="n">
-        <v>550</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -705,22 +661,14 @@
         <v>549.2</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>549</v>
-      </c>
-      <c r="K8" t="n">
-        <v>550</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -748,22 +696,14 @@
         <v>549.2</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>549</v>
-      </c>
-      <c r="K9" t="n">
-        <v>550</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -791,22 +731,14 @@
         <v>549.2</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>550</v>
-      </c>
-      <c r="K10" t="n">
-        <v>550</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -834,22 +766,14 @@
         <v>548.4</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>550</v>
-      </c>
-      <c r="K11" t="n">
-        <v>550</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -877,22 +801,14 @@
         <v>548.8</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>551</v>
-      </c>
-      <c r="K12" t="n">
-        <v>550</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -920,22 +836,14 @@
         <v>547.8</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>545</v>
-      </c>
-      <c r="K13" t="n">
-        <v>550</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -963,22 +871,14 @@
         <v>547.4</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>547</v>
-      </c>
-      <c r="K14" t="n">
-        <v>550</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -1006,22 +906,14 @@
         <v>546.2</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>545</v>
-      </c>
-      <c r="K15" t="n">
-        <v>550</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1049,22 +941,14 @@
         <v>547</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>544</v>
-      </c>
-      <c r="K16" t="n">
-        <v>550</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1092,22 +976,14 @@
         <v>545.2</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>546</v>
-      </c>
-      <c r="K17" t="n">
-        <v>550</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1135,22 +1011,14 @@
         <v>543.2</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>535</v>
-      </c>
-      <c r="K18" t="n">
-        <v>550</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1178,22 +1046,14 @@
         <v>543.2</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>547</v>
-      </c>
-      <c r="K19" t="n">
-        <v>550</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1221,22 +1081,14 @@
         <v>543.6</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>544</v>
-      </c>
-      <c r="K20" t="n">
-        <v>550</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1264,22 +1116,14 @@
         <v>543</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>546</v>
-      </c>
-      <c r="K21" t="n">
-        <v>550</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1307,22 +1151,14 @@
         <v>543.8</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>546</v>
-      </c>
-      <c r="K22" t="n">
-        <v>550</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1350,22 +1186,14 @@
         <v>546.2</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>546</v>
-      </c>
-      <c r="K23" t="n">
-        <v>550</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1393,22 +1221,14 @@
         <v>546.6</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>546</v>
-      </c>
-      <c r="K24" t="n">
-        <v>550</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1436,22 +1256,14 @@
         <v>547.8</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>548</v>
-      </c>
-      <c r="K25" t="n">
-        <v>550</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1479,22 +1291,14 @@
         <v>546.8</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>541</v>
-      </c>
-      <c r="K26" t="n">
-        <v>550</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1522,22 +1326,14 @@
         <v>546.6</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>545</v>
-      </c>
-      <c r="K27" t="n">
-        <v>550</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1565,22 +1361,14 @@
         <v>546.2</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>544</v>
-      </c>
-      <c r="K28" t="n">
-        <v>550</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1608,22 +1396,14 @@
         <v>545.4</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>543</v>
-      </c>
-      <c r="K29" t="n">
-        <v>550</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1651,22 +1431,14 @@
         <v>544.8</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>545</v>
-      </c>
-      <c r="K30" t="n">
-        <v>550</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1694,22 +1466,14 @@
         <v>546.4</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>549</v>
-      </c>
-      <c r="K31" t="n">
-        <v>550</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1737,22 +1501,14 @@
         <v>548</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>543</v>
-      </c>
-      <c r="K32" t="n">
-        <v>550</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1780,22 +1536,14 @@
         <v>548.2</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>545</v>
-      </c>
-      <c r="K33" t="n">
-        <v>550</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1823,22 +1571,14 @@
         <v>547.6</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>545</v>
-      </c>
-      <c r="K34" t="n">
-        <v>550</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1866,22 +1606,14 @@
         <v>546.8</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>545</v>
-      </c>
-      <c r="K35" t="n">
-        <v>550</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1909,22 +1641,14 @@
         <v>547.6</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>547</v>
-      </c>
-      <c r="K36" t="n">
-        <v>550</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1952,22 +1676,14 @@
         <v>547</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>546</v>
-      </c>
-      <c r="K37" t="n">
-        <v>550</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1995,22 +1711,14 @@
         <v>548</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>549</v>
-      </c>
-      <c r="K38" t="n">
-        <v>550</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -2038,22 +1746,14 @@
         <v>549.6</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>550</v>
-      </c>
-      <c r="K39" t="n">
-        <v>550</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -2081,22 +1781,14 @@
         <v>550.6</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>550</v>
-      </c>
-      <c r="K40" t="n">
-        <v>550</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2124,22 +1816,14 @@
         <v>550.2</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>551</v>
-      </c>
-      <c r="K41" t="n">
-        <v>550</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2167,22 +1851,14 @@
         <v>550.2</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>550</v>
-      </c>
-      <c r="K42" t="n">
-        <v>550</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2210,22 +1886,14 @@
         <v>550.2</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>550</v>
-      </c>
-      <c r="K43" t="n">
-        <v>550</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2253,22 +1921,14 @@
         <v>550.2</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>550</v>
-      </c>
-      <c r="K44" t="n">
-        <v>550</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2296,22 +1956,14 @@
         <v>550.2</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>550</v>
-      </c>
-      <c r="K45" t="n">
-        <v>550</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2339,22 +1991,14 @@
         <v>550</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>550</v>
-      </c>
-      <c r="K46" t="n">
-        <v>550</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2382,22 +2026,14 @@
         <v>550</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>550</v>
-      </c>
-      <c r="K47" t="n">
-        <v>550</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2425,22 +2061,14 @@
         <v>550</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>550</v>
-      </c>
-      <c r="K48" t="n">
-        <v>550</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2468,22 +2096,14 @@
         <v>550</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>550</v>
-      </c>
-      <c r="K49" t="n">
-        <v>550</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2511,22 +2131,14 @@
         <v>550</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>550</v>
-      </c>
-      <c r="K50" t="n">
-        <v>550</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2554,22 +2166,14 @@
         <v>550</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>550</v>
-      </c>
-      <c r="K51" t="n">
-        <v>550</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2597,22 +2201,14 @@
         <v>550</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>550</v>
-      </c>
-      <c r="K52" t="n">
-        <v>550</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2640,22 +2236,14 @@
         <v>550.2</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>551</v>
-      </c>
-      <c r="K53" t="n">
-        <v>550</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2683,22 +2271,14 @@
         <v>550.4</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>551</v>
-      </c>
-      <c r="K54" t="n">
-        <v>550</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2726,22 +2306,14 @@
         <v>550.8</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>552</v>
-      </c>
-      <c r="K55" t="n">
-        <v>550</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2769,22 +2341,14 @@
         <v>551.2</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>552</v>
-      </c>
-      <c r="K56" t="n">
-        <v>550</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2812,22 +2376,14 @@
         <v>550.2</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>552</v>
-      </c>
-      <c r="K57" t="n">
-        <v>550</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2855,22 +2411,14 @@
         <v>550.2</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>551</v>
-      </c>
-      <c r="K58" t="n">
-        <v>550</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2898,22 +2446,14 @@
         <v>548.8</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>545</v>
-      </c>
-      <c r="K59" t="n">
-        <v>550</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2941,22 +2481,14 @@
         <v>548.6</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>544</v>
-      </c>
-      <c r="K60" t="n">
-        <v>550</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2984,22 +2516,14 @@
         <v>548.2</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>550</v>
-      </c>
-      <c r="K61" t="n">
-        <v>550</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -3027,22 +2551,14 @@
         <v>549.2</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>550</v>
-      </c>
-      <c r="K62" t="n">
-        <v>550</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -3070,22 +2586,14 @@
         <v>549</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>550</v>
-      </c>
-      <c r="K63" t="n">
-        <v>550</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -3113,22 +2621,14 @@
         <v>548.8</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>543</v>
-      </c>
-      <c r="K64" t="n">
-        <v>550</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -3156,22 +2656,14 @@
         <v>548.6</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>543</v>
-      </c>
-      <c r="K65" t="n">
-        <v>550</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -3199,22 +2691,14 @@
         <v>548.8</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>549</v>
-      </c>
-      <c r="K66" t="n">
-        <v>550</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3242,22 +2726,14 @@
         <v>548.6</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>549</v>
-      </c>
-      <c r="K67" t="n">
-        <v>550</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3285,22 +2761,14 @@
         <v>548.4</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>549</v>
-      </c>
-      <c r="K68" t="n">
-        <v>550</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3328,22 +2796,14 @@
         <v>549.6</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>543</v>
-      </c>
-      <c r="K69" t="n">
-        <v>550</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3371,22 +2831,14 @@
         <v>549.2</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>548</v>
-      </c>
-      <c r="K70" t="n">
-        <v>550</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3414,22 +2866,14 @@
         <v>548.6</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>548</v>
-      </c>
-      <c r="K71" t="n">
-        <v>550</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3457,22 +2901,14 @@
         <v>548.6</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>548</v>
-      </c>
-      <c r="K72" t="n">
-        <v>550</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3500,22 +2936,14 @@
         <v>549.2</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>550</v>
-      </c>
-      <c r="K73" t="n">
-        <v>550</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3543,22 +2971,14 @@
         <v>550</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>552</v>
-      </c>
-      <c r="K74" t="n">
-        <v>550</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3586,22 +3006,14 @@
         <v>551</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>553</v>
-      </c>
-      <c r="K75" t="n">
-        <v>550</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3629,22 +3041,14 @@
         <v>552.2</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>553</v>
-      </c>
-      <c r="K76" t="n">
-        <v>550</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3672,22 +3076,14 @@
         <v>553.4</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>554</v>
-      </c>
-      <c r="K77" t="n">
-        <v>550</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3715,22 +3111,14 @@
         <v>554</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>555</v>
-      </c>
-      <c r="K78" t="n">
-        <v>550</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3758,22 +3146,14 @@
         <v>555.6</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>558</v>
-      </c>
-      <c r="K79" t="n">
-        <v>550</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3801,22 +3181,14 @@
         <v>556.2</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>561</v>
-      </c>
-      <c r="K80" t="n">
-        <v>550</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3844,22 +3216,14 @@
         <v>557.6</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>556</v>
-      </c>
-      <c r="K81" t="n">
-        <v>550</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3887,22 +3251,14 @@
         <v>559.6</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>560</v>
-      </c>
-      <c r="K82" t="n">
-        <v>550</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3930,22 +3286,14 @@
         <v>560.2</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>558</v>
-      </c>
-      <c r="K83" t="n">
-        <v>550</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3973,22 +3321,14 @@
         <v>560.8</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>564</v>
-      </c>
-      <c r="K84" t="n">
-        <v>550</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -4016,22 +3356,14 @@
         <v>560.8</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>556</v>
-      </c>
-      <c r="K85" t="n">
-        <v>550</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -4065,14 +3397,8 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>550</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -4100,22 +3426,14 @@
         <v>558.2</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>564</v>
-      </c>
-      <c r="K87" t="n">
-        <v>550</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -4143,22 +3461,14 @@
         <v>559.4</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>564</v>
-      </c>
-      <c r="K88" t="n">
-        <v>550</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -4192,14 +3502,8 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>550</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -4233,14 +3537,8 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>550</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -4274,14 +3572,8 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>550</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -4315,14 +3607,8 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>550</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4356,14 +3642,8 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>550</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4391,22 +3671,14 @@
         <v>555.6</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>551</v>
-      </c>
-      <c r="K94" t="n">
-        <v>550</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4434,22 +3706,14 @@
         <v>556.2</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>558</v>
-      </c>
-      <c r="K95" t="n">
-        <v>550</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4477,22 +3741,14 @@
         <v>554.8</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>551</v>
-      </c>
-      <c r="K96" t="n">
-        <v>550</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4520,22 +3776,14 @@
         <v>553.8</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>550</v>
-      </c>
-      <c r="K97" t="n">
-        <v>550</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4563,22 +3811,14 @@
         <v>552</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>550</v>
-      </c>
-      <c r="K98" t="n">
-        <v>550</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4606,22 +3846,14 @@
         <v>551.6</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>550</v>
-      </c>
-      <c r="K99" t="n">
-        <v>550</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4649,22 +3881,14 @@
         <v>549.8</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>550</v>
-      </c>
-      <c r="K100" t="n">
-        <v>550</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4692,22 +3916,14 @@
         <v>549.4</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>549</v>
-      </c>
-      <c r="K101" t="n">
-        <v>550</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4735,22 +3951,14 @@
         <v>548.8</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>548</v>
-      </c>
-      <c r="K102" t="n">
-        <v>550</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4778,22 +3986,14 @@
         <v>549.4</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>553</v>
-      </c>
-      <c r="K103" t="n">
-        <v>550</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4821,22 +4021,14 @@
         <v>550.2</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>554</v>
-      </c>
-      <c r="K104" t="n">
-        <v>550</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4864,22 +4056,14 @@
         <v>550.6</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>554</v>
-      </c>
-      <c r="K105" t="n">
-        <v>550</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4907,22 +4091,14 @@
         <v>551.4</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>552</v>
-      </c>
-      <c r="K106" t="n">
-        <v>550</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4950,22 +4126,14 @@
         <v>552.8</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>561</v>
-      </c>
-      <c r="K107" t="n">
-        <v>550</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4993,22 +4161,14 @@
         <v>553</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>554</v>
-      </c>
-      <c r="K108" t="n">
-        <v>550</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -5036,22 +4196,14 @@
         <v>553</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>554</v>
-      </c>
-      <c r="K109" t="n">
-        <v>550</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -5079,22 +4231,14 @@
         <v>552.4</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>554</v>
-      </c>
-      <c r="K110" t="n">
-        <v>550</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -5122,22 +4266,14 @@
         <v>553.4</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>557</v>
-      </c>
-      <c r="K111" t="n">
-        <v>550</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -5165,22 +4301,14 @@
         <v>553.6</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>549</v>
-      </c>
-      <c r="K112" t="n">
-        <v>550</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -5208,22 +4336,14 @@
         <v>553.8</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>555</v>
-      </c>
-      <c r="K113" t="n">
-        <v>550</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -5251,22 +4371,14 @@
         <v>554</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>555</v>
-      </c>
-      <c r="K114" t="n">
-        <v>550</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -5294,22 +4406,14 @@
         <v>555.4</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>555</v>
-      </c>
-      <c r="K115" t="n">
-        <v>550</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -5337,22 +4441,14 @@
         <v>556</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>560</v>
-      </c>
-      <c r="K116" t="n">
-        <v>550</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -5380,22 +4476,14 @@
         <v>556</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>560</v>
-      </c>
-      <c r="K117" t="n">
-        <v>550</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -5423,22 +4511,14 @@
         <v>557.2</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>561</v>
-      </c>
-      <c r="K118" t="n">
-        <v>550</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -5466,22 +4546,14 @@
         <v>559.8</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>561</v>
-      </c>
-      <c r="K119" t="n">
-        <v>550</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -5509,22 +4581,14 @@
         <v>565.8</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>567</v>
-      </c>
-      <c r="K120" t="n">
-        <v>550</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5558,14 +4622,8 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>550</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5599,14 +4657,8 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>550</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5640,14 +4692,8 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>550</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5681,14 +4727,8 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>550</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5722,14 +4762,8 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>550</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5763,14 +4797,8 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>550</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5804,14 +4832,8 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>550</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5845,14 +4867,8 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>550</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5886,14 +4902,8 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>550</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5927,14 +4937,8 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>550</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5968,14 +4972,8 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>550</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -6009,14 +5007,8 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>550</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -6050,14 +5042,8 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>550</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -6091,14 +5077,8 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>550</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -6132,14 +5112,8 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>550</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -6173,14 +5147,8 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>550</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -6214,14 +5182,8 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>550</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -6255,14 +5217,8 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>550</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -6296,14 +5252,8 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>550</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -6337,14 +5287,8 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>550</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -6378,14 +5322,8 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>550</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -6419,14 +5357,8 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>550</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -6460,14 +5392,8 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>550</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -6501,14 +5427,8 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>550</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -6542,14 +5462,8 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>550</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -6583,14 +5497,8 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>550</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -6624,14 +5532,8 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>550</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -6665,14 +5567,8 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>550</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -6706,14 +5602,8 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>550</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -6747,14 +5637,8 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>550</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -6788,14 +5672,8 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>550</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -6829,14 +5707,8 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>550</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -6870,14 +5742,8 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>550</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -6911,14 +5777,8 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>550</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -6949,17 +5809,11 @@
         <v>0</v>
       </c>
       <c r="I155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>550</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6990,17 +5844,11 @@
         <v>0</v>
       </c>
       <c r="I156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>550</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -7034,14 +5882,8 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>550</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -7072,19 +5914,13 @@
         <v>0</v>
       </c>
       <c r="I158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>550</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
-        <v>1.264090909090909</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
@@ -7218,7 +6054,7 @@
         <v>0</v>
       </c>
       <c r="I162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
@@ -7358,7 +6194,7 @@
         <v>0</v>
       </c>
       <c r="I166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
@@ -7428,7 +6264,7 @@
         <v>0</v>
       </c>
       <c r="I168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
@@ -7463,7 +6299,7 @@
         <v>0</v>
       </c>
       <c r="I169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
@@ -21180,14 +20016,20 @@
         <v>554.6</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I561" t="n">
         <v>0</v>
       </c>
-      <c r="J561" t="inlineStr"/>
+      <c r="J561" t="n">
+        <v>555</v>
+      </c>
       <c r="K561" t="inlineStr"/>
-      <c r="L561" t="inlineStr"/>
+      <c r="L561" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M561" t="n">
         <v>1</v>
       </c>
@@ -21215,14 +20057,20 @@
         <v>556</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I562" t="n">
         <v>0</v>
       </c>
-      <c r="J562" t="inlineStr"/>
+      <c r="J562" t="n">
+        <v>560</v>
+      </c>
       <c r="K562" t="inlineStr"/>
-      <c r="L562" t="inlineStr"/>
+      <c r="L562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M562" t="n">
         <v>1</v>
       </c>
@@ -21250,14 +20098,20 @@
         <v>556</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I563" t="n">
         <v>0</v>
       </c>
-      <c r="J563" t="inlineStr"/>
+      <c r="J563" t="n">
+        <v>560</v>
+      </c>
       <c r="K563" t="inlineStr"/>
-      <c r="L563" t="inlineStr"/>
+      <c r="L563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M563" t="n">
         <v>1</v>
       </c>
@@ -21285,14 +20139,20 @@
         <v>557.4</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I564" t="n">
         <v>0</v>
       </c>
-      <c r="J564" t="inlineStr"/>
+      <c r="J564" t="n">
+        <v>552</v>
+      </c>
       <c r="K564" t="inlineStr"/>
-      <c r="L564" t="inlineStr"/>
+      <c r="L564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M564" t="n">
         <v>1</v>
       </c>
@@ -21320,14 +20180,20 @@
         <v>558.4</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I565" t="n">
         <v>0</v>
       </c>
-      <c r="J565" t="inlineStr"/>
+      <c r="J565" t="n">
+        <v>560</v>
+      </c>
       <c r="K565" t="inlineStr"/>
-      <c r="L565" t="inlineStr"/>
+      <c r="L565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M565" t="n">
         <v>1</v>
       </c>
@@ -21355,14 +20221,20 @@
         <v>558.4</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I566" t="n">
         <v>0</v>
       </c>
-      <c r="J566" t="inlineStr"/>
+      <c r="J566" t="n">
+        <v>560</v>
+      </c>
       <c r="K566" t="inlineStr"/>
-      <c r="L566" t="inlineStr"/>
+      <c r="L566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M566" t="n">
         <v>1</v>
       </c>
@@ -21390,14 +20262,20 @@
         <v>558.4</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I567" t="n">
         <v>0</v>
       </c>
-      <c r="J567" t="inlineStr"/>
+      <c r="J567" t="n">
+        <v>560</v>
+      </c>
       <c r="K567" t="inlineStr"/>
-      <c r="L567" t="inlineStr"/>
+      <c r="L567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M567" t="n">
         <v>1</v>
       </c>
@@ -21432,7 +20310,11 @@
       </c>
       <c r="J568" t="inlineStr"/>
       <c r="K568" t="inlineStr"/>
-      <c r="L568" t="inlineStr"/>
+      <c r="L568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M568" t="n">
         <v>1</v>
       </c>
@@ -21467,7 +20349,11 @@
       </c>
       <c r="J569" t="inlineStr"/>
       <c r="K569" t="inlineStr"/>
-      <c r="L569" t="inlineStr"/>
+      <c r="L569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M569" t="n">
         <v>1</v>
       </c>
@@ -21502,7 +20388,11 @@
       </c>
       <c r="J570" t="inlineStr"/>
       <c r="K570" t="inlineStr"/>
-      <c r="L570" t="inlineStr"/>
+      <c r="L570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M570" t="n">
         <v>1</v>
       </c>
@@ -21537,7 +20427,11 @@
       </c>
       <c r="J571" t="inlineStr"/>
       <c r="K571" t="inlineStr"/>
-      <c r="L571" t="inlineStr"/>
+      <c r="L571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M571" t="n">
         <v>1</v>
       </c>
@@ -21572,7 +20466,11 @@
       </c>
       <c r="J572" t="inlineStr"/>
       <c r="K572" t="inlineStr"/>
-      <c r="L572" t="inlineStr"/>
+      <c r="L572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M572" t="n">
         <v>1</v>
       </c>
@@ -21607,7 +20505,11 @@
       </c>
       <c r="J573" t="inlineStr"/>
       <c r="K573" t="inlineStr"/>
-      <c r="L573" t="inlineStr"/>
+      <c r="L573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M573" t="n">
         <v>1</v>
       </c>
@@ -21642,7 +20544,11 @@
       </c>
       <c r="J574" t="inlineStr"/>
       <c r="K574" t="inlineStr"/>
-      <c r="L574" t="inlineStr"/>
+      <c r="L574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M574" t="n">
         <v>1</v>
       </c>
@@ -21677,7 +20583,11 @@
       </c>
       <c r="J575" t="inlineStr"/>
       <c r="K575" t="inlineStr"/>
-      <c r="L575" t="inlineStr"/>
+      <c r="L575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M575" t="n">
         <v>1</v>
       </c>
@@ -21712,7 +20622,11 @@
       </c>
       <c r="J576" t="inlineStr"/>
       <c r="K576" t="inlineStr"/>
-      <c r="L576" t="inlineStr"/>
+      <c r="L576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M576" t="n">
         <v>1</v>
       </c>
@@ -21747,7 +20661,11 @@
       </c>
       <c r="J577" t="inlineStr"/>
       <c r="K577" t="inlineStr"/>
-      <c r="L577" t="inlineStr"/>
+      <c r="L577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M577" t="n">
         <v>1</v>
       </c>
@@ -21782,7 +20700,11 @@
       </c>
       <c r="J578" t="inlineStr"/>
       <c r="K578" t="inlineStr"/>
-      <c r="L578" t="inlineStr"/>
+      <c r="L578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M578" t="n">
         <v>1</v>
       </c>
@@ -21817,7 +20739,11 @@
       </c>
       <c r="J579" t="inlineStr"/>
       <c r="K579" t="inlineStr"/>
-      <c r="L579" t="inlineStr"/>
+      <c r="L579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M579" t="n">
         <v>1</v>
       </c>
@@ -21852,7 +20778,11 @@
       </c>
       <c r="J580" t="inlineStr"/>
       <c r="K580" t="inlineStr"/>
-      <c r="L580" t="inlineStr"/>
+      <c r="L580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M580" t="n">
         <v>1</v>
       </c>
@@ -21887,7 +20817,11 @@
       </c>
       <c r="J581" t="inlineStr"/>
       <c r="K581" t="inlineStr"/>
-      <c r="L581" t="inlineStr"/>
+      <c r="L581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M581" t="n">
         <v>1</v>
       </c>
@@ -21922,7 +20856,11 @@
       </c>
       <c r="J582" t="inlineStr"/>
       <c r="K582" t="inlineStr"/>
-      <c r="L582" t="inlineStr"/>
+      <c r="L582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M582" t="n">
         <v>1</v>
       </c>
@@ -21957,7 +20895,11 @@
       </c>
       <c r="J583" t="inlineStr"/>
       <c r="K583" t="inlineStr"/>
-      <c r="L583" t="inlineStr"/>
+      <c r="L583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M583" t="n">
         <v>1</v>
       </c>
@@ -21992,7 +20934,11 @@
       </c>
       <c r="J584" t="inlineStr"/>
       <c r="K584" t="inlineStr"/>
-      <c r="L584" t="inlineStr"/>
+      <c r="L584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M584" t="n">
         <v>1</v>
       </c>
@@ -22027,7 +20973,11 @@
       </c>
       <c r="J585" t="inlineStr"/>
       <c r="K585" t="inlineStr"/>
-      <c r="L585" t="inlineStr"/>
+      <c r="L585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M585" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-26 BackTest BCD.xlsx
+++ b/BackTest/2019-10-26 BackTest BCD.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>5569.59367572</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>5269.59367572</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>525</v>
@@ -521,7 +521,7 @@
         <v>5269.59367572</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>520</v>
@@ -562,7 +562,7 @@
         <v>5301.75697572</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>520</v>
@@ -603,7 +603,7 @@
         <v>5694.41247572</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>524</v>
@@ -644,7 +644,7 @@
         <v>5488.42777572</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>525</v>
@@ -685,7 +685,7 @@
         <v>5488.42777572</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>519</v>
@@ -726,7 +726,7 @@
         <v>5489.83997572</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>519</v>
@@ -767,7 +767,7 @@
         <v>5237.64457572</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>524</v>
@@ -808,7 +808,7 @@
         <v>5238.680775719999</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>521</v>
@@ -849,7 +849,7 @@
         <v>3414.07157572</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>524</v>
@@ -890,7 +890,7 @@
         <v>3845.07157572</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>521</v>
@@ -931,7 +931,7 @@
         <v>4235.244475719999</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>524</v>
@@ -972,7 +972,7 @@
         <v>4235.244475719999</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>525</v>
@@ -1013,7 +1013,7 @@
         <v>7792.132375719999</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>525</v>
@@ -1054,7 +1054,7 @@
         <v>8666.665575719999</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>530</v>
@@ -1095,7 +1095,7 @@
         <v>11013.35177572</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>531</v>
@@ -1136,7 +1136,7 @@
         <v>8752.442575719999</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>535</v>
@@ -1177,7 +1177,7 @@
         <v>8752.442575719999</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>534</v>
@@ -1218,7 +1218,7 @@
         <v>8752.442575719999</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>534</v>
@@ -1259,7 +1259,7 @@
         <v>9109.442575719999</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>534</v>
@@ -1300,7 +1300,7 @@
         <v>9107.442575719999</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>537</v>
@@ -1341,7 +1341,7 @@
         <v>8107.442575719999</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>536</v>
@@ -1382,7 +1382,7 @@
         <v>8107.442575719999</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>530</v>
@@ -1423,7 +1423,7 @@
         <v>8107.442575719999</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>530</v>
@@ -1464,7 +1464,7 @@
         <v>8264.654675719999</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>530</v>
@@ -1505,7 +1505,7 @@
         <v>2200.25097572</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>536</v>
@@ -1546,7 +1546,7 @@
         <v>2298.25097572</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>535</v>
@@ -1587,7 +1587,7 @@
         <v>2298.25097572</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>536</v>
@@ -1628,7 +1628,7 @@
         <v>2298.25097572</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>536</v>
@@ -1669,7 +1669,7 @@
         <v>1118.587475719999</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>536</v>
@@ -1710,7 +1710,7 @@
         <v>427.3806757199994</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>535</v>
@@ -1751,7 +1751,7 @@
         <v>-19376.40212428</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>533</v>
@@ -1792,7 +1792,7 @@
         <v>-19376.40212428</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>531</v>
@@ -1833,11 +1833,9 @@
         <v>40492.91257572</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
-      </c>
-      <c r="I36" t="n">
-        <v>531</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
         <v>525</v>
       </c>
@@ -1874,11 +1872,9 @@
         <v>45608.19227572</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
-      </c>
-      <c r="I37" t="n">
-        <v>539</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
         <v>525</v>
       </c>
@@ -2149,9 +2145,11 @@
         <v>37603.79307572</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>536</v>
+      </c>
       <c r="J44" t="n">
         <v>525</v>
       </c>
@@ -2188,9 +2186,11 @@
         <v>41977.34367572</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>537</v>
+      </c>
       <c r="J45" t="n">
         <v>525</v>
       </c>
@@ -2266,7 +2266,7 @@
         <v>41979.30347572</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>548</v>
@@ -9444,7 +9444,7 @@
         <v>158419.67759042</v>
       </c>
       <c r="H231" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="n">
@@ -9452,15 +9452,13 @@
       </c>
       <c r="K231" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L231" t="n">
-        <v>1.318809523809524</v>
-      </c>
-      <c r="M231" t="n">
-        <v>1.009615384615385</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9485,11 +9483,17 @@
         <v>162567.43229042</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>525</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9518,11 +9522,17 @@
         <v>164067.43229042</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>525</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9551,11 +9561,17 @@
         <v>165829.17959042</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>525</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9587,8 +9603,14 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>525</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9620,8 +9642,14 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>525</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9650,15 +9678,23 @@
         <v>157432.02819042</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>525</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+        <v>1.341666666666667</v>
+      </c>
+      <c r="M237" t="n">
+        <v>1.009615384615385</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9683,7 +9719,7 @@
         <v>157432.02819042</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -9716,7 +9752,7 @@
         <v>142177.38239042</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -9749,7 +9785,7 @@
         <v>148432.99599042</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -9782,7 +9818,7 @@
         <v>148904.10119042</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -10277,7 +10313,7 @@
         <v>62797.74528637998</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -10310,7 +10346,7 @@
         <v>60619.71508637998</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -10343,7 +10379,7 @@
         <v>58068.60888637998</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -10376,7 +10412,7 @@
         <v>58068.60888637998</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -10409,7 +10445,7 @@
         <v>58068.60888637998</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -10442,7 +10478,7 @@
         <v>60080.33868637998</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -10475,7 +10511,7 @@
         <v>42698.33518637998</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -10508,7 +10544,7 @@
         <v>43692.08088637998</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -10541,7 +10577,7 @@
         <v>42525.20758637998</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -10574,7 +10610,7 @@
         <v>35171.88848637998</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -10607,7 +10643,7 @@
         <v>35171.88848637998</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -10640,7 +10676,7 @@
         <v>31498.95188637998</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -10673,7 +10709,7 @@
         <v>26428.21358637998</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -10706,7 +10742,7 @@
         <v>23938.19318637998</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -10739,7 +10775,7 @@
         <v>23938.19318637998</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -10772,7 +10808,7 @@
         <v>22204.50018637998</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -10805,7 +10841,7 @@
         <v>15932.09038637998</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -10838,7 +10874,7 @@
         <v>13454.21468637998</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -10871,7 +10907,7 @@
         <v>13454.21468637998</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -10904,7 +10940,7 @@
         <v>9996.724186379979</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -15095,7 +15131,7 @@
         <v>901.6255622999788</v>
       </c>
       <c r="H402" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -15293,7 +15329,7 @@
         <v>35595.29294308998</v>
       </c>
       <c r="H408" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -15326,7 +15362,7 @@
         <v>34850.46834308998</v>
       </c>
       <c r="H409" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -15359,7 +15395,7 @@
         <v>34483.52944308998</v>
       </c>
       <c r="H410" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -15392,7 +15428,7 @@
         <v>32421.45424308998</v>
       </c>
       <c r="H411" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -15425,7 +15461,7 @@
         <v>32476.45424308998</v>
       </c>
       <c r="H412" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -15623,7 +15659,7 @@
         <v>33611.16504308998</v>
       </c>
       <c r="H418" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -15755,7 +15791,7 @@
         <v>41744.90434308998</v>
       </c>
       <c r="H422" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -15788,7 +15824,7 @@
         <v>42191.39054308998</v>
       </c>
       <c r="H423" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -16712,7 +16748,7 @@
         <v>84392.87134308997</v>
       </c>
       <c r="H451" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -16745,7 +16781,7 @@
         <v>84673.70059853996</v>
       </c>
       <c r="H452" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -16778,7 +16814,7 @@
         <v>85994.51064308996</v>
       </c>
       <c r="H453" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -16811,7 +16847,7 @@
         <v>85803.00278763995</v>
       </c>
       <c r="H454" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -16844,7 +16880,7 @@
         <v>85803.00278763995</v>
       </c>
       <c r="H455" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -16877,7 +16913,7 @@
         <v>85802.00278763995</v>
       </c>
       <c r="H456" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -17108,7 +17144,7 @@
         <v>86989.39388763995</v>
       </c>
       <c r="H463" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -17141,7 +17177,7 @@
         <v>86989.39388763995</v>
       </c>
       <c r="H464" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -17174,7 +17210,7 @@
         <v>86989.39388763995</v>
       </c>
       <c r="H465" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -17207,7 +17243,7 @@
         <v>86989.39388763995</v>
       </c>
       <c r="H466" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -17240,7 +17276,7 @@
         <v>83340.73738763995</v>
       </c>
       <c r="H467" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -17273,7 +17309,7 @@
         <v>83340.73738763995</v>
       </c>
       <c r="H468" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -18296,7 +18332,7 @@
         <v>71640.03828763994</v>
       </c>
       <c r="H499" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -18329,7 +18365,7 @@
         <v>71640.03828763994</v>
       </c>
       <c r="H500" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -18560,7 +18596,7 @@
         <v>67186.86908763993</v>
       </c>
       <c r="H507" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -18593,7 +18629,7 @@
         <v>75087.57128763993</v>
       </c>
       <c r="H508" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -18626,7 +18662,7 @@
         <v>75084.57128763993</v>
       </c>
       <c r="H509" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -18659,7 +18695,7 @@
         <v>75084.57128763993</v>
       </c>
       <c r="H510" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -18692,7 +18728,7 @@
         <v>75086.21873408994</v>
       </c>
       <c r="H511" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -18725,7 +18761,7 @@
         <v>75086.21873408994</v>
       </c>
       <c r="H512" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -18758,7 +18794,7 @@
         <v>75044.21873408994</v>
       </c>
       <c r="H513" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -18791,7 +18827,7 @@
         <v>72952.78103408995</v>
       </c>
       <c r="H514" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -18824,7 +18860,7 @@
         <v>71323.17273408994</v>
       </c>
       <c r="H515" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -18857,7 +18893,7 @@
         <v>71324.17273408994</v>
       </c>
       <c r="H516" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -18890,7 +18926,7 @@
         <v>71286.17273408994</v>
       </c>
       <c r="H517" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -18923,7 +18959,7 @@
         <v>71248.26773408994</v>
       </c>
       <c r="H518" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -18956,7 +18992,7 @@
         <v>72659.36183408994</v>
       </c>
       <c r="H519" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -18989,7 +19025,7 @@
         <v>70165.61183408994</v>
       </c>
       <c r="H520" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -19022,7 +19058,7 @@
         <v>70284.96463408993</v>
       </c>
       <c r="H521" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -19055,7 +19091,7 @@
         <v>70290.96463408993</v>
       </c>
       <c r="H522" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -19088,7 +19124,7 @@
         <v>70289.96463408993</v>
       </c>
       <c r="H523" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -19121,7 +19157,7 @@
         <v>70289.96463408993</v>
       </c>
       <c r="H524" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -19154,7 +19190,7 @@
         <v>69011.67083408993</v>
       </c>
       <c r="H525" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -19187,7 +19223,7 @@
         <v>69021.67083408993</v>
       </c>
       <c r="H526" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -19220,7 +19256,7 @@
         <v>68662.57713408994</v>
       </c>
       <c r="H527" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -19253,7 +19289,7 @@
         <v>69031.57713408994</v>
       </c>
       <c r="H528" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -19286,7 +19322,7 @@
         <v>69031.57713408994</v>
       </c>
       <c r="H529" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -19319,7 +19355,7 @@
         <v>69031.57713408994</v>
       </c>
       <c r="H530" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -19352,7 +19388,7 @@
         <v>69031.57713408994</v>
       </c>
       <c r="H531" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -19385,7 +19421,7 @@
         <v>69031.57713408994</v>
       </c>
       <c r="H532" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -19418,7 +19454,7 @@
         <v>68679.57723408994</v>
       </c>
       <c r="H533" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -19451,7 +19487,7 @@
         <v>68679.57723408994</v>
       </c>
       <c r="H534" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -19484,7 +19520,7 @@
         <v>68679.57723408994</v>
       </c>
       <c r="H535" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -19517,7 +19553,7 @@
         <v>68679.57723408994</v>
       </c>
       <c r="H536" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -19550,7 +19586,7 @@
         <v>70782.18813408994</v>
       </c>
       <c r="H537" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -19583,7 +19619,7 @@
         <v>70155.18813408994</v>
       </c>
       <c r="H538" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -19616,7 +19652,7 @@
         <v>70155.18813408994</v>
       </c>
       <c r="H539" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -19649,7 +19685,7 @@
         <v>70155.18813408994</v>
       </c>
       <c r="H540" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -19682,7 +19718,7 @@
         <v>70155.18813408994</v>
       </c>
       <c r="H541" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -19715,7 +19751,7 @@
         <v>70155.18813408994</v>
       </c>
       <c r="H542" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -19748,7 +19784,7 @@
         <v>58520.59413408994</v>
       </c>
       <c r="H543" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -19781,7 +19817,7 @@
         <v>54824.26813408994</v>
       </c>
       <c r="H544" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -19814,7 +19850,7 @@
         <v>54470.21373408994</v>
       </c>
       <c r="H545" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -19847,7 +19883,7 @@
         <v>54476.21373408994</v>
       </c>
       <c r="H546" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -19880,7 +19916,7 @@
         <v>53787.76823408994</v>
       </c>
       <c r="H547" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -20210,7 +20246,7 @@
         <v>57520.78433408995</v>
       </c>
       <c r="H557" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -20276,7 +20312,7 @@
         <v>56803.13493408995</v>
       </c>
       <c r="H559" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -20342,7 +20378,7 @@
         <v>49793.13493408995</v>
       </c>
       <c r="H561" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -20474,7 +20510,7 @@
         <v>46155.18573408994</v>
       </c>
       <c r="H565" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -20540,7 +20576,7 @@
         <v>42635.08683408994</v>
       </c>
       <c r="H567" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -20804,7 +20840,7 @@
         <v>47492.82392356994</v>
       </c>
       <c r="H575" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -20870,7 +20906,7 @@
         <v>47492.82392356994</v>
       </c>
       <c r="H577" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -20903,7 +20939,7 @@
         <v>46597.82392356994</v>
       </c>
       <c r="H578" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -20936,7 +20972,7 @@
         <v>45959.82392356994</v>
       </c>
       <c r="H579" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -23422,6 +23458,6 @@
       <c r="M654" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest BCD.xlsx
+++ b/BackTest/2019-10-26 BackTest BCD.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1218,11 +1218,9 @@
         <v>8752.442575719999</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>534</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
         <v>525</v>
       </c>
@@ -1259,11 +1257,9 @@
         <v>9109.442575719999</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>534</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
         <v>525</v>
       </c>
@@ -1300,11 +1296,9 @@
         <v>9107.442575719999</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>537</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
         <v>525</v>
       </c>
@@ -1341,11 +1335,9 @@
         <v>8107.442575719999</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>536</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
         <v>525</v>
       </c>
@@ -1382,11 +1374,9 @@
         <v>8107.442575719999</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>530</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
         <v>525</v>
       </c>
@@ -1423,11 +1413,9 @@
         <v>8107.442575719999</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>530</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="n">
         <v>525</v>
       </c>
@@ -1464,11 +1452,9 @@
         <v>8264.654675719999</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>530</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
         <v>525</v>
       </c>
@@ -1505,11 +1491,9 @@
         <v>2200.25097572</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>536</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
         <v>525</v>
       </c>
@@ -1546,11 +1530,9 @@
         <v>2298.25097572</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>535</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
         <v>525</v>
       </c>
@@ -1587,11 +1569,9 @@
         <v>2298.25097572</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>536</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
         <v>525</v>
       </c>
@@ -1628,11 +1608,9 @@
         <v>2298.25097572</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>536</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
         <v>525</v>
       </c>
@@ -1669,11 +1647,9 @@
         <v>1118.587475719999</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>536</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
         <v>525</v>
       </c>
@@ -1710,11 +1686,9 @@
         <v>427.3806757199994</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>535</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
         <v>525</v>
       </c>
@@ -1751,11 +1725,9 @@
         <v>-19376.40212428</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>533</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
         <v>525</v>
       </c>
@@ -1792,11 +1764,9 @@
         <v>-19376.40212428</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>531</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
         <v>525</v>
       </c>
@@ -2145,11 +2115,9 @@
         <v>37603.79307572</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>536</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
         <v>525</v>
       </c>
@@ -2186,11 +2154,9 @@
         <v>41977.34367572</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>537</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
         <v>525</v>
       </c>
@@ -2266,11 +2232,9 @@
         <v>41979.30347572</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>548</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
         <v>525</v>
       </c>
@@ -8703,7 +8667,7 @@
         <v>177264.7320565</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="n">
@@ -8711,13 +8675,15 @@
       </c>
       <c r="K212" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+        <v>1.334047619047619</v>
+      </c>
+      <c r="M212" t="n">
+        <v>1.009615384615385</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8742,17 +8708,11 @@
         <v>176751.40068508</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>525</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8781,17 +8741,11 @@
         <v>182278.15760985</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>525</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8820,17 +8774,11 @@
         <v>167336.29240985</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>525</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8859,17 +8807,11 @@
         <v>160150.39733843</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>525</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8898,17 +8840,11 @@
         <v>161303.05663843</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>525</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8937,17 +8873,11 @@
         <v>175969.58873843</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>525</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8976,17 +8906,11 @@
         <v>160603.45603843</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>525</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -9015,17 +8939,11 @@
         <v>164101.20673843</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>525</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -9054,17 +8972,11 @@
         <v>164101.20673843</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>525</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -9096,14 +9008,8 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>525</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -9135,14 +9041,8 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>525</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -9174,14 +9074,8 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>525</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -9213,14 +9107,8 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>525</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -9252,14 +9140,8 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>525</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -9291,14 +9173,8 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>525</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -9330,14 +9206,8 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>525</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9369,14 +9239,8 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>525</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9408,14 +9272,8 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>525</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9447,14 +9305,8 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>525</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9486,14 +9338,8 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>525</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9525,14 +9371,8 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>525</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9564,14 +9404,8 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>525</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9603,14 +9437,8 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>525</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9642,14 +9470,8 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>525</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9678,23 +9500,15 @@
         <v>157432.02819042</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>525</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
-        <v>1.341666666666667</v>
-      </c>
-      <c r="M237" t="n">
-        <v>1.009615384615385</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9719,7 +9533,7 @@
         <v>157432.02819042</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -9752,7 +9566,7 @@
         <v>142177.38239042</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -9785,7 +9599,7 @@
         <v>148432.99599042</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -9818,7 +9632,7 @@
         <v>148904.10119042</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -10313,7 +10127,7 @@
         <v>62797.74528637998</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -10346,7 +10160,7 @@
         <v>60619.71508637998</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -10379,7 +10193,7 @@
         <v>58068.60888637998</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -10412,7 +10226,7 @@
         <v>58068.60888637998</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -10445,7 +10259,7 @@
         <v>58068.60888637998</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -10478,7 +10292,7 @@
         <v>60080.33868637998</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -10511,7 +10325,7 @@
         <v>42698.33518637998</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -10544,7 +10358,7 @@
         <v>43692.08088637998</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -10577,7 +10391,7 @@
         <v>42525.20758637998</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -10610,7 +10424,7 @@
         <v>35171.88848637998</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -10643,7 +10457,7 @@
         <v>35171.88848637998</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -10676,7 +10490,7 @@
         <v>31498.95188637998</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -10709,7 +10523,7 @@
         <v>26428.21358637998</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -10742,7 +10556,7 @@
         <v>23938.19318637998</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -10775,7 +10589,7 @@
         <v>23938.19318637998</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -10808,7 +10622,7 @@
         <v>22204.50018637998</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -10841,7 +10655,7 @@
         <v>15932.09038637998</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -10874,7 +10688,7 @@
         <v>13454.21468637998</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -10907,7 +10721,7 @@
         <v>13454.21468637998</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -10940,7 +10754,7 @@
         <v>9996.724186379979</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -23458,6 +23272,6 @@
       <c r="M654" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest BCD.xlsx
+++ b/BackTest/2019-10-26 BackTest BCD.xlsx
@@ -1218,9 +1218,11 @@
         <v>8752.442575719999</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>534</v>
+      </c>
       <c r="J21" t="n">
         <v>525</v>
       </c>
@@ -1257,9 +1259,11 @@
         <v>9109.442575719999</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>534</v>
+      </c>
       <c r="J22" t="n">
         <v>525</v>
       </c>
@@ -1296,9 +1300,11 @@
         <v>9107.442575719999</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>537</v>
+      </c>
       <c r="J23" t="n">
         <v>525</v>
       </c>
@@ -1335,9 +1341,11 @@
         <v>8107.442575719999</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>536</v>
+      </c>
       <c r="J24" t="n">
         <v>525</v>
       </c>
@@ -1374,9 +1382,11 @@
         <v>8107.442575719999</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>530</v>
+      </c>
       <c r="J25" t="n">
         <v>525</v>
       </c>
@@ -1413,9 +1423,11 @@
         <v>8107.442575719999</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>530</v>
+      </c>
       <c r="J26" t="n">
         <v>525</v>
       </c>
@@ -1452,9 +1464,11 @@
         <v>8264.654675719999</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>530</v>
+      </c>
       <c r="J27" t="n">
         <v>525</v>
       </c>
@@ -1725,9 +1739,11 @@
         <v>-19376.40212428</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>533</v>
+      </c>
       <c r="J34" t="n">
         <v>525</v>
       </c>
@@ -8667,7 +8683,7 @@
         <v>177264.7320565</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="n">
@@ -8675,15 +8691,13 @@
       </c>
       <c r="K212" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L212" t="n">
-        <v>1.334047619047619</v>
-      </c>
-      <c r="M212" t="n">
-        <v>1.009615384615385</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8708,11 +8722,17 @@
         <v>176751.40068508</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>525</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8741,11 +8761,17 @@
         <v>182278.15760985</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>525</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8774,11 +8800,17 @@
         <v>167336.29240985</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>525</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8807,11 +8839,17 @@
         <v>160150.39733843</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>525</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8840,11 +8878,17 @@
         <v>161303.05663843</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>525</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8873,11 +8917,17 @@
         <v>175969.58873843</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>525</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8906,11 +8956,17 @@
         <v>160603.45603843</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>525</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8939,11 +8995,17 @@
         <v>164101.20673843</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>525</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8972,11 +9034,17 @@
         <v>164101.20673843</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>525</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -9008,8 +9076,14 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>525</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -9041,8 +9115,14 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>525</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -9074,8 +9154,14 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>525</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -9107,8 +9193,14 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>525</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -9140,8 +9232,14 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>525</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -9173,8 +9271,14 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>525</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -9206,8 +9310,14 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>525</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9239,8 +9349,14 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>525</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9272,8 +9388,14 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>525</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9305,8 +9427,14 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>525</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9338,8 +9466,14 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>525</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9371,8 +9505,14 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>525</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9401,15 +9541,23 @@
         <v>165829.17959042</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>525</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+        <v>1.343571428571429</v>
+      </c>
+      <c r="M234" t="n">
+        <v>1.009615384615385</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9434,7 +9582,7 @@
         <v>165829.17959042</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -9467,7 +9615,7 @@
         <v>157432.02819042</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -9500,7 +9648,7 @@
         <v>157432.02819042</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -9533,7 +9681,7 @@
         <v>157432.02819042</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -9566,7 +9714,7 @@
         <v>142177.38239042</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -9599,7 +9747,7 @@
         <v>148432.99599042</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -9632,7 +9780,7 @@
         <v>148904.10119042</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -9665,7 +9813,7 @@
         <v>148904.10119042</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -9698,7 +9846,7 @@
         <v>148904.10119042</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -9731,7 +9879,7 @@
         <v>90613.40213191998</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -9764,7 +9912,7 @@
         <v>89357.82393191998</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -9797,7 +9945,7 @@
         <v>99144.79488637998</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -9830,7 +9978,7 @@
         <v>104246.40648638</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
